--- a/biology/Médecine/Les_Pouvoirs_extraordinaires_du_corps_humain/Les_Pouvoirs_extraordinaires_du_corps_humain.xlsx
+++ b/biology/Médecine/Les_Pouvoirs_extraordinaires_du_corps_humain/Les_Pouvoirs_extraordinaires_du_corps_humain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les Pouvoirs extraordinaires du corps humain est une série documentaire française diffusée du 20 novembre 2012 au 20 juillet 2023 sur France 2, et présentée par Michel Cymes et Adriana Karembeu[1].
+Les Pouvoirs extraordinaires du corps humain est une série documentaire française diffusée du 20 novembre 2012 au 20 juillet 2023 sur France 2, et présentée par Michel Cymes et Adriana Karembeu.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Concept</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La mannequin Adriana Karembeu et le médecin Michel Cymes explorent les pouvoirs extraordinaires du corps humain et éprouvent, démonstrations à l'appui, leurs capacités dans diverses situations extrêmes.
 Ils partent à la rencontre d'experts sur le sujet de l'émission ainsi que de personnalités qui ont repoussé les limites de leurs corps ou de leurs cerveaux à force d'entraînement.
@@ -544,13 +558,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Initialement, le programme est conçu comme une série de magazines dont Adriana Karembeu serait le fil rouge. À chaque émission, elle devait être accompagnée d'un expert, comme le médecin Michel Cymes pour la première émission sur le corps humain et ses limites. Mais comme le duo s'entend très bien, il est décidé de les garder tous les deux à la présentation d'autres numéros[2].
-Le 20 mars 2012, le tournage de la deuxième émission débute au Muséum national d'histoire naturelle et il continue du 2 au 8 avril en Tanzanie[3].
-En janvier 2014, la quatrième émission est tournée dans le Sud-Ouest de la France. Une séquence est tournée les 3 et 4 février à Bordeaux[4].
-Le 25 février 2015, un livre sur le sujet de la quatrième émission parait : Les Pouvoirs du corps humain : Dans la peau des premiers hommes. Mettant en scène les deux présentateurs, il est écrit par un collectif de journalistes et chercheurs[5],[6].
-En octobre 2015, l'équipe tourne une nouvelle émission à Tolède en Espagne[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Initialement, le programme est conçu comme une série de magazines dont Adriana Karembeu serait le fil rouge. À chaque émission, elle devait être accompagnée d'un expert, comme le médecin Michel Cymes pour la première émission sur le corps humain et ses limites. Mais comme le duo s'entend très bien, il est décidé de les garder tous les deux à la présentation d'autres numéros.
+Le 20 mars 2012, le tournage de la deuxième émission débute au Muséum national d'histoire naturelle et il continue du 2 au 8 avril en Tanzanie.
+En janvier 2014, la quatrième émission est tournée dans le Sud-Ouest de la France. Une séquence est tournée les 3 et 4 février à Bordeaux.
+Le 25 février 2015, un livre sur le sujet de la quatrième émission parait : Les Pouvoirs du corps humain : Dans la peau des premiers hommes. Mettant en scène les deux présentateurs, il est écrit par un collectif de journalistes et chercheurs,.
+En octobre 2015, l'équipe tourne une nouvelle émission à Tolède en Espagne.
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Auteurs : Peggy Olmi, Sandie Keignaert, Tatiana Vincent, Cynthia Laboureau, Madeleine Zbinden, Kristina Stankovic, Cécile Guéry-Riquier
@@ -588,13 +606,13 @@
 Présentateurs : Michel Cymes et Adriana Karembeu
 Intervenants : Emmanuelle Lecornet-Sokol et Caroline Balma-Chaminadour, Docteur Dominique Servant, Dr Pierre Nys, Virginie Boutin, Fabienne Broucaret, Dr Pierre Lemarquis, Dr Vincent Renaud, Véronique Liesse, Marine Jobert, François Veillerette, Gilbert Bou-Jaoudé, Docteur Boris Hansel
 Voix off : Hervé Lacroix (1re émission), Frédéric Courraud (2e émission), Peggy Olmi (depuis la 3e émission)
-Productrice : Peggy Olmi[8]
+Productrice : Peggy Olmi
 Sociétés de production : Elephant &amp; Cie, Pulsations puis 17 juin média, avec la participation de France Télévisions
 Pays d'origine :  France
 Langue : Français
 Chaîne : France 2
 Première diffusion : 20 novembre 2012
-Nombre de saisons et d'épisodes : Saison 5[9] - 20 épisodes
+Nombre de saisons et d'épisodes : Saison 5 - 20 épisodes
 Durée : 1 h 40 - 2 h (100 minutes - 120 minutes)</t>
         </is>
       </c>
@@ -623,7 +641,9 @@
           <t>Liste des émissions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Légende :
 Les plus hauts chiffres d'audience
@@ -656,9 +676,11 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les quinze premiers épisodes sont suivis en moyenne par 3,19 millions de téléspectateurs, soit 13,0 % du public. Le cinquième épisode diffusé le 16 septembre 2014, Les pouvoirs extraordinaires de notre cerveau, a réalisé le meilleur score en attirant 4,02 millions de français, soit 17,0 % de part d'audience[19], tandis que le quinzième épisode diffusé le 11 avril 2017, Les super pouvoirs des enfants, a réalisé le pire score avec seulement 1,87 million de téléspectateurs, soit 8,1 % de part de marché[39].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les quinze premiers épisodes sont suivis en moyenne par 3,19 millions de téléspectateurs, soit 13,0 % du public. Le cinquième épisode diffusé le 16 septembre 2014, Les pouvoirs extraordinaires de notre cerveau, a réalisé le meilleur score en attirant 4,02 millions de français, soit 17,0 % de part d'audience, tandis que le quinzième épisode diffusé le 11 avril 2017, Les super pouvoirs des enfants, a réalisé le pire score avec seulement 1,87 million de téléspectateurs, soit 8,1 % de part de marché.
 </t>
         </is>
       </c>
@@ -687,15 +709,17 @@
           <t>Controverses sur la véracité de certaines affirmations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Lors d'un épisode (datant d'octobre 2019 mais plusieurs fois rediffusé) de l'émission Les pouvoirs extraordinaires du corps humain sur France 2, intitulé « Fruits, légumes, plantes : cette nature qui nous fait du bien ! », Michel Cymes et sa coanimatrice Adriana Karembeu expérimentent la sylvothérapie, une pseudomédecine censée guérir le corps à l'aide du pouvoir de la forêt, qui consiste à enlacer les troncs d'arbre ou s'y adosser pour baisser sa fréquence cardiaque et donc réduire son stress, un extrait de l'émission précisant qu'elle est « considérée au Japon comme « une médecine qui permet de vivre plus longtemps » »[65], sans préciser que cette pratique n'est appuyée par aucune preuve scientifique[66] (la seule étude brandie par les promoteurs de cette technique a été menée sur un échantillon de seulement 12 personnes et ne présente aucun effet probant)[67]. 
-À la suite de cette diffusion, de nombreux internautes s'indignent qu'il promeuve cette « pseudoscience » alors qu'il s'est publiquement positionné contre le traitement de l'hydroxychloroquine du professeur Didier Raoult dans la lutte contre le Covid-19 au nom de la médecine basée sur les faits[65].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Lors d'un épisode (datant d'octobre 2019 mais plusieurs fois rediffusé) de l'émission Les pouvoirs extraordinaires du corps humain sur France 2, intitulé « Fruits, légumes, plantes : cette nature qui nous fait du bien ! », Michel Cymes et sa coanimatrice Adriana Karembeu expérimentent la sylvothérapie, une pseudomédecine censée guérir le corps à l'aide du pouvoir de la forêt, qui consiste à enlacer les troncs d'arbre ou s'y adosser pour baisser sa fréquence cardiaque et donc réduire son stress, un extrait de l'émission précisant qu'elle est « considérée au Japon comme « une médecine qui permet de vivre plus longtemps » », sans préciser que cette pratique n'est appuyée par aucune preuve scientifique (la seule étude brandie par les promoteurs de cette technique a été menée sur un échantillon de seulement 12 personnes et ne présente aucun effet probant). 
+À la suite de cette diffusion, de nombreux internautes s'indignent qu'il promeuve cette « pseudoscience » alors qu'il s'est publiquement positionné contre le traitement de l'hydroxychloroquine du professeur Didier Raoult dans la lutte contre le Covid-19 au nom de la médecine basée sur les faits.
 Dans Les Pouvoirs extraordinaires du corps humain, Michel Cymes reprend un certain nombre de théories infondées mais populaires sur certains réseaux sociaux : 
-le jardinage augmenterait la taille des télomères et permettrait de vivre plus longtemps (théorie inventée de toutes pièces par l'influenceur et homme d'affaires américain Deepak Chopra sans la moindre preuve scientifique)[68]
-le vieillissement cellulaire serait essentiellement dû aux radicaux libres qui feraient « rouiller » les cellules (une théorie populaire chez toutes sortes de charlatans mais sans aucun fondement scientifique)[69]
-la musique aiderait les plantes à pousser (théorie de la « Protéodie », défendue par quelques promoteurs mais qui n'a pas encore démontré d'effet probant)[70]
-les huiles essentielles seraient plus efficaces que les antibiotiques (affirmation complètement infondée sur le plan médical, d'autant plus que les huiles essentielles bactéricides ont généralement des effets secondaires bien plus préoccupants et moins maîtrisés que les antibiotiques)[71]</t>
+le jardinage augmenterait la taille des télomères et permettrait de vivre plus longtemps (théorie inventée de toutes pièces par l'influenceur et homme d'affaires américain Deepak Chopra sans la moindre preuve scientifique)
+le vieillissement cellulaire serait essentiellement dû aux radicaux libres qui feraient « rouiller » les cellules (une théorie populaire chez toutes sortes de charlatans mais sans aucun fondement scientifique)
+la musique aiderait les plantes à pousser (théorie de la « Protéodie », défendue par quelques promoteurs mais qui n'a pas encore démontré d'effet probant)
+les huiles essentielles seraient plus efficaces que les antibiotiques (affirmation complètement infondée sur le plan médical, d'autant plus que les huiles essentielles bactéricides ont généralement des effets secondaires bien plus préoccupants et moins maîtrisés que les antibiotiques)</t>
         </is>
       </c>
     </row>
@@ -725,8 +749,13 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Livre
-Antoine Balzeau, Adrien Denèle, Simon Devos, Oriane Dioux, Ronan Rousseau et Laure Roussel, Les Pouvoirs du corps humain : Dans la peau des premiers hommes, Paris, Éditions du Chêne, 25 février 2015, 255 p. (ISBN 978-2-81231-170-3, BNF 44401651)[5],[6].</t>
+          <t>Livre</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Antoine Balzeau, Adrien Denèle, Simon Devos, Oriane Dioux, Ronan Rousseau et Laure Roussel, Les Pouvoirs du corps humain : Dans la peau des premiers hommes, Paris, Éditions du Chêne, 25 février 2015, 255 p. (ISBN 978-2-81231-170-3, BNF 44401651),.</t>
         </is>
       </c>
     </row>
